--- a/docs/PT3/PT3_02.08.24_output.xlsx
+++ b/docs/PT3/PT3_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2999 +505,3555 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730824955.0699337</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730824957.7804728</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824955.0699337.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824957.7804728.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.9800000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730824958.3880024</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730824960.2180657</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824958.3880024.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824960.2180657.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.88</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.240000000000009</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730824961.5747993</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730824961.6314073</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824961.5747993.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824961.6314073.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730824961.819881</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730824964.1066911</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824961.819881.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824964.1066911.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.89</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>285.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730824976.6873558</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730824977.9054766</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824976.6873558.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824977.9054766.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>286.58</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>285.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.430000000000007</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730824977.9640057</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730824981.688919</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824977.9640057.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824981.688919.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>285.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>285.58</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730824985.3622208</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730824986.9438503</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824985.3622208.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730824986.9438503.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>285.73</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>285.96</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2299999999999613</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730824988.6219056</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730824992.1647856</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824988.6219056.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824992.1647856.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.46</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.57</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8900000000000148</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730824997.2399547</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730824998.981494</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824997.2399547.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730824998.981494.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.14</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730825001.5644176</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730825003.4516125</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825001.5644176.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825003.4516125.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.53</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>130.34</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730825003.5091696</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730825005.2386472</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825003.5091696.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825005.2386472.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.42</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1199999999999761</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730825011.117377</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730825012.8646605</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825011.117377.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825012.8646605.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>131.55</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>131.29</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.2600000000000193</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730825018.5919716</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730825019.7046638</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825018.5919716.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825019.7046638.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>131.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>131.27</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.0700000000000216</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730825023.1498532</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730825023.3362699</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825023.1498532.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825023.3362699.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6677.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6675.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730825023.5607502</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730825024.9266624</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825023.5607502.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825024.9266624.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6681</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6682.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730825031.3921926</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730825033.1893783</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825031.3921926.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825033.1893783.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6646.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6624.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730825035.6500268</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730825037.8550022</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825035.6500268.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825037.8550022.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6602.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730825038.260084</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730825038.357684</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825038.260084.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825038.357684.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6614.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6607.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730825038.4562917</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730825039.5142817</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825038.4562917.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825039.5142817.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6611</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6618.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730825043.9459329</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730825044.8664966</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825043.9459329.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825044.8664966.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6633.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6607.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-26</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730825058.2450762</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730825066.0225592</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825058.2450762.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825066.0225592.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>508</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>507.05</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.9499999999999886</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730825072.6912274</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730825078.3527398</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825072.6912274.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825078.3527398.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>505.35</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>504.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730825088.2826865</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730825088.5091186</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825088.2826865.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825088.5091186.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>504.25</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>504.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730825089.0449853</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730825089.0449853.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730825089.0449853.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>504.9</v>
       </c>
-      <c r="J26" t="n">
-        <v>504.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>504.95</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730825090.497007</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730825092.8231096</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825090.497007.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825092.8231096.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>229.07</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>228.85</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730825092.8377497</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730825094.3051183</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825092.8377497.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825094.3051183.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>228.85</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>228.11</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.7399999999999807</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730825101.733841</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730825104.0723588</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825101.733841.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825104.0723588.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>228.27</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>227.44</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.8300000000000125</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730825109.7893412</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730825114.8811984</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825109.7893412.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825114.8811984.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>230.45</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>230.41</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730825115.3516607</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730825115.8552804</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825115.3516607.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825115.8552804.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>230.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>230.28</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730825121.129616</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730825121.129616.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1730825121.129616.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>229.99</v>
       </c>
-      <c r="J32" t="n">
-        <v>229.99</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>230.16</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730825132.8051991</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730825133.5235715</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825132.8051991.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825133.5235715.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1025.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730825135.851449</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730825137.2299469</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825135.851449.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825137.2299469.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1022.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1016.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>5.799999999999955</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730825156.9978492</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730825157.9357557</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1730825156.9978492.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1730825157.9357557.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.859</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.856</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730825160.181368</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730825160.2711968</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1730825160.181368.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1730825160.2711968.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.868</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.869</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730825169.869023</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730825170.0954523</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825169.869023.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825170.0954523.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>127.88</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730825170.1530423</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730825171.275653</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825170.1530423.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825171.275653.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>127.88</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>127.92</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730825175.3489604</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730825175.9073608</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825175.3489604.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825175.9073608.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>127.58</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>127.84</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730825182.3907855</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730825182.662112</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825182.3907855.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825182.662112.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>128.44</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>128.56</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730825182.9822867</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730825187.019402</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825182.9822867.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825187.019402.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>128.16</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>127.54</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.6199999999999903</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730825193.0576708</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730825193.1094363</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825193.0576708.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825193.1094363.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>127.7</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>127.68</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730825193.1611562</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730825193.1611562.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730825193.1611562.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.68</v>
       </c>
-      <c r="J43" t="n">
-        <v>127.68</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730825207.3180451</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730825208.7682347</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825207.3180451.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825208.7682347.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>164.78</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>164.22</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730825216.0488887</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730825217.2378647</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825216.0488887.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825217.2378647.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>165.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730825223.915072</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730825225.6964195</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825223.915072.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825225.6964195.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>165.04</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>165.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730825226.5740366</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730825226.6306467</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825226.5740366.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825226.6306467.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.53</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730825226.83951</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730825227.1177397</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825226.83951.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825227.1177397.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.57</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.385</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1850000000000023</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730825227.445151</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730825227.5491424</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825227.445151.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825227.5491424.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.46</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.435</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730825227.8253791</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730825228.9390526</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825227.8253791.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825228.9390526.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.495</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.47</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730825246.3968654</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730825247.0828214</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825246.3968654.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825247.0828214.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.27</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.45</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730825247.1437173</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730825250.7978294</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825247.1437173.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825250.7978294.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.455</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.3</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730825256.0346851</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730825256.5841463</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825256.0346851.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825256.5841463.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.39</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730825259.698676</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730825259.698676.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730825259.698676.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.405</v>
       </c>
-      <c r="J54" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730825263.8254154</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730825265.34695</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825263.8254154.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825265.34695.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1407.6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1409</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730825266.0703068</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730825272.0725207</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825266.0703068.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825272.0725207.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1405.6</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1407</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730825274.263367</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730825277.7282906</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825274.263367.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825277.7282906.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1405</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1397.6</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730825278.8940108</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730825281.1289184</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825278.8940108.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825281.1289184.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1408</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-7.200000000000045</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730825281.1880205</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730825281.2456992</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825281.1880205.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825281.2456992.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1408</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1411.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-3.400000000000091</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730825281.303426</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730825284.5761876</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825281.303426.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825284.5761876.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1408.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1396.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>12.39999999999986</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730825284.5918028</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730825285.594818</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825284.5918028.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825285.594818.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1396.4</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1397.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730825285.6114101</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730825288.5788054</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825285.6114101.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825288.5788054.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1399.4</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.600000000000136</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730825293.7616425</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730825294.2671564</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825293.7616425.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825294.2671564.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1405</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1405</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3490,718 +4061,853 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730825295.9573357</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730825296.4911208</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825295.9573357.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825296.4911208.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>60.67</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.96</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2899999999999991</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730825298.422547</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730825310.164616</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825298.422547.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825310.164616.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.86</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>59.99</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.8699999999999974</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730825311.337084</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730825311.95691</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825311.337084.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825311.95691.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.14</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>60.13</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730825312.0154698</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730825312.9321635</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825312.0154698.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825312.9321635.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>60.13</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>60.27</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730825317.0514872</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730825322.5314393</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825317.0514872.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825322.5314393.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.47</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>60.19</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730825325.7021496</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730825326.186614</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825325.7021496.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825326.186614.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.28</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>60.39</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730825326.7064245</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730825326.7064245.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730825326.7064245.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>60.33</v>
       </c>
-      <c r="J70" t="n">
-        <v>60.33</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730825330.3059278</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730825331.8220243</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825330.3059278.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825331.8220243.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>97.55</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>97.65000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730825331.8379104</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730825331.8971412</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825331.8379104.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825331.8971412.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>97.65000000000001</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730825336.2037265</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730825338.6849523</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825336.2037265.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825338.6849523.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>56.98</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>56.45</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.529999999999994</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730825354.0083148</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730825359.9715798</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825354.0083148.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825359.9715798.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>57.18</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>56.96</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730825361.4166474</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730825363.3101702</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825361.4166474.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825363.3101702.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>56.78</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>56.81</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730825363.824234</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730825364.6274002</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825363.824234.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825364.6274002.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>56.99</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>57.07</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730825365.1846416</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730825365.1846416.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730825365.1846416.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>57.05</v>
       </c>
-      <c r="J77" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730825365.7009447</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730825365.776426</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825365.7009447.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825365.776426.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>142.7</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>142.7</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4209,2139 +4915,2535 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730825388.0928864</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730825393.982885</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825388.0928864.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825393.982885.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>145.36</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>144.88</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730825395.3469665</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730825395.8393784</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825395.3469665.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825395.8393784.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>145.56</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>145.52</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730825395.8959863</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730825396.6143227</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825395.8959863.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825396.6143227.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>145.52</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>145.7</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1799999999999784</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730825398.1194801</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730825398.3689866</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825398.1194801.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825398.3689866.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>145.46</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>145.14</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730825401.2998836</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730825402.4863849</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825401.2998836.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825402.4863849.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>20.94</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>20.84</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730825403.6685655</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730825405.0726726</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825403.6685655.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825405.0726726.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>20.72</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>20.561</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.1589999999999989</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730825407.0551062</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730825409.392227</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825407.0551062.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825409.392227.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>20.68</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>20.722</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.04200000000000159</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730825413.3021417</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730825414.6512275</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825413.3021417.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825414.6512275.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>20.775</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>20.6</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1749999999999972</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730825421.4008124</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730825427.4790971</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825421.4008124.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825427.4790971.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>20.849</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>20.728</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.1209999999999987</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730825428.5616593</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730825429.6099312</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825428.5616593.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825429.6099312.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>20.737</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>20.791</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.05400000000000205</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730825431.934816</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730825433.4420946</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825431.934816.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825433.4420946.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>20.903</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>20.905</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.002000000000002444</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730825442.2407625</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730825445.6872454</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825442.2407625.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825445.6872454.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>674.05</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>672.1</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>1.949999999999932</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730825453.680625</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730825456.233233</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825453.680625.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825456.233233.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>665.1</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>672.25</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-7.149999999999977</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730825459.221341</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730825460.665021</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825459.221341.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825460.665021.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>672.65</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>672.5</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730825466.3357086</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730825466.3923173</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825466.3357086.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825466.3923173.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>675.95</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>676.75</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730825466.7658932</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730825466.7658932.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730825466.7658932.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>676.45</v>
       </c>
-      <c r="J94" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
+      <c r="L94" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730825468.9104748</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730825468.9720201</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825468.9104748.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825468.9720201.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-6.000000000000449e-05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730825469.16575</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730825469.4622133</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825469.16575.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825469.4622133.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.09916000000000001</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730825469.523878</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730825474.036609</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825469.523878.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825474.036609.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.10016</v>
       </c>
-      <c r="K97" t="n">
-        <v>-0.001100000000000004</v>
+      <c r="M97" t="n">
+        <v>-0.00109999999999999</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-1.11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730825477.4950168</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730825479.3764973</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825477.4950168.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825479.3764973.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.10036</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.10034</v>
       </c>
-      <c r="K98" t="n">
-        <v>-1.999999999999225e-05</v>
+      <c r="M98" t="n">
+        <v>-2.000000000000612e-05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730825484.5880847</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730825488.1623971</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825484.5880847.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825488.1623971.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.0008400000000000074</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730825497.6520667</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730825498.1198945</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825497.6520667.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825498.1198945.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.09888000000000001</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.09892000000000001</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-3.999999999999837e-05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730825503.511176</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730825506.885397</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825503.511176.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825506.885397.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.5984</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.001399999999999957</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730825513.4854598</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730825513.5459416</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825513.4854598.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825513.5459416.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.5976</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>0.5973000000000001</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.000299999999999967</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730825517.107174</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730825519.3790255</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825517.107174.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825519.3790255.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>0.5995</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.6033000000000001</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.003800000000000026</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730825522.4165373</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730825527.4604533</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825522.4165373.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825527.4604533.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>0.6031000000000001</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>0.6029</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.000200000000000089</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730825531.441565</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730825531.7324457</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825531.441565.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825531.7324457.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2995.05</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2981.65</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>13.40000000000009</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730825532.1765313</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730825533.3031313</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825532.1765313.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825533.3031313.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>2984.9</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>2993.75</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-8.849999999999909</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1730825533.3206995</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1730825533.6525395</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825533.3206995.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825533.6525395.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>2993.75</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>2993</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1730825534.7461233</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1730825535.286977</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825534.7461233.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825535.286977.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>2988.45</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>2989.45</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1730825535.304545</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1730825536.3950663</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825535.304545.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825536.3950663.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2989.45</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2981</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>8.449999999999818</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1730825536.7518165</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1730825537.2571177</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825536.7518165.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825537.2571177.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>2984.1</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>2975.95</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>8.150000000000091</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1730825538.0154428</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1730825538.3649416</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825538.0154428.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825538.3649416.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>2973.95</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>2974.9</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-0.9500000000002728</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1730825544.1651862</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1730825544.2657137</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825544.1651862.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825544.2657137.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>2963.5</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-1.150000000000091</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1730825544.3252494</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1730825544.4677975</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825544.3252494.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825544.4677975.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>2962.25</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>2967.4</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-5.150000000000091</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1730825546.7841413</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1730825547.1491652</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825546.7841413.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825547.1491652.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>2960</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>2956.8</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>3.199999999999818</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1730825549.2819748</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1730825549.7907429</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825549.2819748.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825549.7907429.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>2967.9</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>2965.7</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-2.200000000000273</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1730825550.9065912</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1730825551.1398551</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825550.9065912.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825551.1398551.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>2970.1</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>2972.8</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>2.700000000000273</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1730825552.169989</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1730825552.456969</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825552.169989.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825552.456969.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>2980.4</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>2984</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1730825553.0796885</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1730825554.4208646</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825553.0796885.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825554.4208646.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>2979.7</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>2965.55</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-14.14999999999964</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1730825555.6373672</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1730825555.8203893</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825555.6373672.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825555.8203893.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>2961.05</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>2958.55</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1730825563.5617864</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1730825563.8096287</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825563.5617864.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825563.8096287.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>2964.6</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>2966</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1730825564.180446</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1730825564.3853304</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825564.180446.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825564.3853304.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>2963.4</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>2965.65</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>2.25</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1730825564.917094</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730825564.917094.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730825564.917094.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>2965.3</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>2965.3</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6349,147 +7451,174 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1730825565.4924428</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1730825567.2325308</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825565.4924428.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825567.2325308.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>34.52</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>34.51</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1730825573.5807638</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1730825576.590881</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825573.5807638.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825576.590881.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>34.24</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>34.18</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1730825587.207664</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1730825593.3159058</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825587.207664.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825593.3159058.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>34.35</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>34.185</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>-0.1649999999999991</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -6503,7 +7632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6527,6 +7656,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6540,6 +7684,15 @@
       <c r="C2" t="n">
         <v>18</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.4694444444444343</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6553,6 +7706,15 @@
       <c r="C3" t="n">
         <v>9</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.9999999999999495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6561,11 +7723,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1499999999999986</v>
+        <v>0.134999999999998</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.01687499999999975</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6579,6 +7750,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6592,6 +7772,15 @@
       <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1685714285714133</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6600,11 +7789,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.460000000000001</v>
+        <v>-1.530000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.2185714285714287</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6618,6 +7816,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.04271428571428615</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6626,11 +7833,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2799999999999727</v>
+        <v>-0.2599999999999767</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.03714285714285381</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6644,6 +7860,15 @@
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2350000000000042</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6652,11 +7877,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4500000000000455</v>
+        <v>0.280000000000058</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.04666666666667633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6670,6 +7904,15 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>-4.666666666666477e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.2900000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6678,11 +7921,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.8599999999999923</v>
+        <v>-0.7799999999999869</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.1559999999999974</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6691,11 +7943,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.550000000000068</v>
+        <v>-3.550000000000068</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.7100000000000136</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6709,6 +7970,15 @@
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.004000000000002046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6722,6 +7992,15 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.001174999999999982</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6730,11 +8009,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04999999999995453</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.4210854715202e-14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-8.673617379884035e-18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6748,6 +8036,15 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.1400000000000053</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.2500000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6761,6 +8058,15 @@
       <c r="C19" t="n">
         <v>3</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.038333333333334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6774,6 +8080,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>5.299999999999955</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6787,6 +8102,15 @@
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.00199999999999978</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6800,6 +8124,15 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.07500000000000995</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -6813,6 +8146,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
